--- a/mbs-perturbation/bloated/randomForest/nearmiss/bloated-randomForest-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/randomForest/nearmiss/bloated-randomForest-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5739644970414202</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5454545454545454</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4615384615384616</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6390532544378698</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5088757396449703</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.6287878787878789</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.6931818181818182</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6216959511077158</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.5378787878787878</v>
       </c>
       <c r="D7" t="n">
-        <v>0.455</v>
+        <v>0.5301587301587301</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6828402366863905</v>
+        <v>0.7734848484848486</v>
       </c>
     </row>
   </sheetData>
